--- a/Dokumentit/TestPlan for VibeCatch UI testing.xlsx
+++ b/Dokumentit/TestPlan for VibeCatch UI testing.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merja\RobotTraining\Projekti1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merja\RobotTraining\Projekti1\Dokumentit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5C8E8-6FB7-4211-A002-B156E8597C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC728A8C-EB98-4835-9615-959AE7749918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2424" windowWidth="16248" windowHeight="8448" xr2:uid="{03444C07-BEDD-4261-B3A8-7D256210EB13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03444C07-BEDD-4261-B3A8-7D256210EB13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -82,6 +83,10 @@
   </si>
   <si>
     <t>Make a new poll</t>
+  </si>
+  <si>
+    <t>Dokumentti, jossa kuvataan aiottujen testaustoimien tarkoitus, lähestymistapa, resurssit ja aikataulu. 
+Siinä rajataan testaus sekä määritellään, mitä ominaisuuksia testataan, testaustehtävät ja kuka vastaa tehtävistä, testauksen itsenäisyyden aste, testausympäristö, testauksen suunnittelutekniikat, testauksn aloitus- ja lopetuskriteerit ja perustelut niiden valinnalle, sekä testaukseen liittyvät riskit, jotka vaativat varasuunnitelmia.</t>
   </si>
 </sst>
 </file>
@@ -144,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +162,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2458D980-2A5B-45D5-A21B-1B40AF3DCEAF}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,69 +490,53 @@
     <col min="1" max="1" width="28.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -552,7 +544,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -560,7 +552,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -568,14 +560,53 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ABDFD7-2D16-4B74-9F47-7CCA9F5E7FCC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>